--- a/a.xlsx
+++ b/a.xlsx
@@ -50,7 +50,7 @@
     <t xml:space="preserve">One -to-one chat User Name</t>
   </si>
   <si>
-    <t xml:space="preserve">keerti</t>
+    <t xml:space="preserve">Nagaraju Shaku</t>
   </si>
   <si>
     <t xml:space="preserve">Instant chat</t>
@@ -68,7 +68,7 @@
     <t xml:space="preserve">Channel name</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t xml:space="preserve">Test123</t>
   </si>
   <si>
     <t xml:space="preserve">https://tdo.demo.zapoj.com</t>
@@ -188,7 +188,7 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
